--- a/SCBAA/2019/Region 4A.xlsx
+++ b/SCBAA/2019/Region 4A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593927DB-B3AC-4F7E-B590-3D22B8C2BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9F4CD5-3886-4A86-A074-93518BB7FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="285" windowWidth="14685" windowHeight="12495" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" activeTab="4" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Batangas" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -925,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
@@ -18763,7 +18770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEB9910-BAD7-42F8-8F62-E983C9ED71BF}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
@@ -19143,7 +19150,9 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>

--- a/SCBAA/2019/Region 4A.xlsx
+++ b/SCBAA/2019/Region 4A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9F4CD5-3886-4A86-A074-93518BB7FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A11C3F-A898-4D26-A67E-AFC4359A798D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" activeTab="4" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="15" activeTab="19" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Batangas" sheetId="1" r:id="rId1"/>
@@ -15200,8 +15200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9440BEA7-A76D-4E33-9E98-A6B41D90AE3C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15358,7 +15358,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>1678487165.4200001</v>
       </c>
     </row>
@@ -15412,7 +15411,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>463231652.21000004</v>
       </c>
     </row>
@@ -15603,7 +15601,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3890345827</v>
       </c>
     </row>
@@ -15994,7 +15991,6 @@
         <v>47</v>
       </c>
       <c r="E75" s="18">
-        <f>5050+8876895.83</f>
         <v>8881945.8300000001</v>
       </c>
     </row>
@@ -16181,7 +16177,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2563039665.1999998</v>
       </c>
     </row>
@@ -16356,7 +16351,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>501545264.84000003</v>
       </c>
     </row>
@@ -16368,7 +16362,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>3064584930.04</v>
       </c>
     </row>
@@ -17579,8 +17572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4399AE9A-FDA8-4B4C-9743-DAE8094AF9CC}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="E98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F111" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17726,7 +17719,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="35">
-        <f>9932940.01+323144442.25</f>
         <v>333077382.25999999</v>
       </c>
     </row>
@@ -17738,7 +17730,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1003149935.77</v>
       </c>
     </row>
@@ -17792,7 +17783,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>102077913.25999999</v>
       </c>
     </row>
@@ -17983,7 +17973,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1773649519.79</v>
       </c>
     </row>
@@ -18560,7 +18549,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1363366103.7600002</v>
       </c>
     </row>
@@ -18727,7 +18715,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="36">
-        <f>20924994.59+9347128.23</f>
         <v>30272122.82</v>
       </c>
     </row>
@@ -18736,7 +18723,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>217402998.28999999</v>
       </c>
     </row>
@@ -18748,7 +18734,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1580769102.0500002</v>
       </c>
     </row>
@@ -18770,8 +18755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEB9910-BAD7-42F8-8F62-E983C9ED71BF}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F90" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19959,8 +19944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71BCD7-54E7-47B8-86D5-3AE9CEC38281}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F90" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20106,7 +20091,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="35">
-        <f>25524465.57+2152675.52</f>
         <v>27677141.09</v>
       </c>
     </row>
@@ -20118,7 +20102,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>112281487.88</v>
       </c>
     </row>
@@ -20161,7 +20144,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="35">
-        <f>127643718.47+47886.09</f>
         <v>127691604.56</v>
       </c>
     </row>
@@ -20173,7 +20155,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>157929196.74000001</v>
       </c>
     </row>
@@ -20364,7 +20345,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>673904379.62</v>
       </c>
     </row>
@@ -20941,7 +20921,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>561669147.12</v>
       </c>
     </row>
@@ -21116,7 +21095,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>2983054</v>
       </c>
     </row>
@@ -21128,7 +21106,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>564652201.12</v>
       </c>
     </row>
